--- a/00_data_raw/Belaege_Gewichtung_Szenario1.xlsx
+++ b/00_data_raw/Belaege_Gewichtung_Szenario1.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zhaw-my.sharepoint.com/personal/pfeifsar_students_zhaw_ch/Documents/6. Semester MSc UnR/Thesis/R_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zhaw-my.sharepoint.com/personal/pfeifsar_students_zhaw_ch/Documents/6. Semester MSc UnR/Thesis/R_Project/00_data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{72486D78-DEF3-48B5-ABEC-3983F2E8BA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03428A39-C63E-49F1-8C0E-8898EC50EE13}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{72486D78-DEF3-48B5-ABEC-3983F2E8BA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47CB1B56-9D4B-40D7-9328-3D5FBFEA96D5}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-34710" yWindow="2340" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19305" yWindow="-1350" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Gewichtung" sheetId="1" r:id="rId1"/>
+    <sheet name="Begründung" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>group_id</t>
   </si>
@@ -137,6 +138,11 @@
   </si>
   <si>
     <t>modulareErneuerbarkeit</t>
+  </si>
+  <si>
+    <t>Szenario 1: "Ausgewogene Nachhaltigkeit" (Baseline)
+Szenario 1, "Ausgewogene Nachhaltigkeit", dient als Baseline-Szenario. Die Gewichtung (Umweltbelastung: 30%; Langlebigkeit &amp; Wirtschaftlichkeit: 25%; Multifunktionale Nutzungsqualität: 25%; Kreislauffähigkeit: 20%) repräsentiert einen holistischen Ansatz, bei dem alle vier zentralen Bewertungsbereiche annähernd gleich stark priorisiert werden.
+Diese Verteilung legitimiert sich direkt aus Forschungsziel 1, welches eine umfassende Analyse von Umweltverträglichkeit, Lebensdauer und Kreislauffähigkeit fordert, sowie Forschungsziel 2, das die Anwendung eines breiten Bewertungsrasters impliziert. Das Szenario bildet die Referenz, an der die Sensitivität der Prioritätenverschiebung in den Folgeszenarien gemessen wird.</t>
   </si>
 </sst>
 </file>
@@ -195,10 +201,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -827,4 +836,27 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AB53B4-2FBE-46B8-B527-F1B1CE8FDF72}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="53.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/00_data_raw/Belaege_Gewichtung_Szenario1.xlsx
+++ b/00_data_raw/Belaege_Gewichtung_Szenario1.xlsx
@@ -8,20 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zhaw-my.sharepoint.com/personal/pfeifsar_students_zhaw_ch/Documents/6. Semester MSc UnR/Thesis/R_Project/00_data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{72486D78-DEF3-48B5-ABEC-3983F2E8BA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47CB1B56-9D4B-40D7-9328-3D5FBFEA96D5}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{72486D78-DEF3-48B5-ABEC-3983F2E8BA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93392BD8-8E64-4C26-BB3D-14B844453444}"/>
   <bookViews>
-    <workbookView xWindow="-19305" yWindow="-1350" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19305" yWindow="-1350" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gewichtung" sheetId="1" r:id="rId1"/>
     <sheet name="Begründung" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>group_id</t>
   </si>
@@ -39,9 +52,6 @@
   </si>
   <si>
     <t>within_group_weight</t>
-  </si>
-  <si>
-    <t>total_weight</t>
   </si>
   <si>
     <t>umweltbelastung</t>
@@ -519,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -553,284 +563,249 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2">
-        <v>0.6</v>
-      </c>
-      <c r="G2">
-        <v>0.18</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3">
-        <v>0.4</v>
-      </c>
-      <c r="G3">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4">
-        <v>0.4</v>
-      </c>
-      <c r="G4">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5">
-        <v>0.3</v>
-      </c>
-      <c r="G5">
-        <v>7.4999999999999997E-2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6">
-        <v>0.3</v>
-      </c>
-      <c r="G6">
-        <v>7.4999999999999997E-2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7">
-        <v>0.3</v>
-      </c>
-      <c r="G7">
-        <v>7.4999999999999997E-2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8">
-        <v>0.3</v>
-      </c>
-      <c r="G8">
-        <v>7.4999999999999997E-2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9">
-        <v>0.2</v>
-      </c>
-      <c r="G9">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10">
-        <v>0.2</v>
-      </c>
-      <c r="G10">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11">
-        <v>0.4</v>
-      </c>
-      <c r="G11">
-        <v>0.08</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12">
-        <v>0.3</v>
-      </c>
-      <c r="G12">
-        <v>0.06</v>
+        <f t="shared" ref="F12:F13" si="0">1/3</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13">
-        <v>0.3</v>
-      </c>
-      <c r="G13">
-        <v>0.06</v>
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
     </row>
   </sheetData>
@@ -842,7 +817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AB53B4-2FBE-46B8-B527-F1B1CE8FDF72}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -853,7 +828,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/00_data_raw/Belaege_Gewichtung_Szenario1.xlsx
+++ b/00_data_raw/Belaege_Gewichtung_Szenario1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zhaw-my.sharepoint.com/personal/pfeifsar_students_zhaw_ch/Documents/6. Semester MSc UnR/Thesis/R_Project/00_data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{72486D78-DEF3-48B5-ABEC-3983F2E8BA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93392BD8-8E64-4C26-BB3D-14B844453444}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{72486D78-DEF3-48B5-ABEC-3983F2E8BA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5ABD7522-19EA-4200-B26F-F05BBC3DED1E}"/>
   <bookViews>
-    <workbookView xWindow="-19305" yWindow="-1350" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21765" yWindow="225" windowWidth="19125" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gewichtung" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>group_id</t>
   </si>
@@ -96,9 +96,6 @@
     <t>befahrbarkeit</t>
   </si>
   <si>
-    <t>barrierefreiheit</t>
-  </si>
-  <si>
     <t>recyclingfaehigkeit</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
   </si>
   <si>
     <t>Befahrbarkeit</t>
-  </si>
-  <si>
-    <t>Barrierefreiheit</t>
   </si>
   <si>
     <t>Recyclingfähigkeit</t>
@@ -527,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -579,7 +573,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2">
         <v>0.5</v>
@@ -596,10 +590,10 @@
         <v>0.25</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>0.5</v>
@@ -610,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>0.4</v>
@@ -619,7 +613,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4">
         <v>0.5</v>
@@ -630,7 +624,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>0.4</v>
@@ -639,7 +633,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5">
         <v>0.25</v>
@@ -650,7 +644,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>0.4</v>
@@ -659,7 +653,7 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <v>0.25</v>
@@ -679,10 +673,11 @@
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7">
-        <v>0.25</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -699,10 +694,11 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8">
-        <v>0.25</v>
+        <f t="shared" ref="F8:F9" si="0">1/3</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -719,30 +715,32 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9">
-        <v>0.25</v>
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10">
-        <v>0.25</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -756,13 +754,13 @@
         <v>0.25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11">
-        <f>1/3</f>
+        <f t="shared" ref="F11:F12" si="1">1/3</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -777,34 +775,13 @@
         <v>0.25</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:F13" si="0">1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>0.25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -828,7 +805,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
